--- a/data/long_razon/P51_N-Edad-long_razon.xlsx
+++ b/data/long_razon/P51_N-Edad-long_razon.xlsx
@@ -635,15 +635,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.01429030904206329</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1999353997757169</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2367909754223889</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.5551055777912869</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.445254276086786</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.1797774711452668</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2756536804876897</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.6574407839989435</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2135785959538488</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -652,15 +670,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.8342992022896034</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.8445917684952801</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.9278330187853194</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4297246689945777</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.641219986608498</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7756671381766848</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.4639841311238018</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4115839207953738</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.7355455435440167</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -669,15 +705,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>3.097871088537444</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.948625995966881</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.965631415321786</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.585612842605493</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>12.47877505746895</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.13285746343888</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.707243745213971</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>3.765138280277507</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.001910820588198</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -690,15 +744,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.5961814483821728</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3316037081243815</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.752437436366696</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.0580273076327948</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.162978347958314</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.09150160923984903</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.3758249739014454</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.2567690728058081</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.2575245806551229</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -707,15 +779,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.9366529369561442</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.7561285501444382</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3341597691677279</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6344713693663362</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4607279916816762</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5698468972751025</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.7473567381546304</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4594666758956886</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2868224425851696</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -724,15 +814,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.4600160686547493</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.847013495061981</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.979010040571973</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.084754207069197</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.87462221332717</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.114835222943399</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.3514224987764729</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.906056567085542</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.392734675443981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,15 +853,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.2779947230084971</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2702571445946872</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.006241881935716573</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.2337350716876279</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1583983520457576</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.2595558721068876</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.0948015450609353</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.06886805051281525</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.1545582207603603</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -762,15 +888,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.9078578523223421</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.7339350517416167</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.6512325137436964</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4402785709501993</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.4866054682416853</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.647525613769403</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.7145039946771636</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.4746775170345164</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5359617132605397</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -779,15 +923,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.545124656388568</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.7071489983475505</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.653144764287839</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.856663210989567</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.321375361628138</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.5771076015651813</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.8494549766011406</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.6027402539411491</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.4504345692856354</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -800,15 +962,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.3849385598189839</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.234435421460884</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1627119359154303</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.111496539038528</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1042825144291408</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.03033316292638626</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.2591590446247118</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.05486259855833737</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.09291070591928094</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -817,15 +997,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.7876811796821134</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.5931502732799971</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.7184931703324716</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.0695626901088042</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.5603028146482145</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.4572390465437138</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2778726767217512</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4507538172839312</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.4588319297510474</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -834,15 +1032,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.4007033769596658</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.747849778996176</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.578535869888037</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.542617217375665</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.752466142555825</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.8047324506895527</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.138358374642164</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.8590541958994395</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.7029357888809767</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -855,15 +1071,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.1569717956684599</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.950001501715563</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.4113914786688479</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.4787530727061513</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.9141098173095468</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.3131587338135482</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.3584429360651849</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>1.323079271623011</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.1118548484991956</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -872,15 +1106,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.7816335215514731</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.4922346532230004</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.7425664477842864</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.4781640629394613</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.6012072552986757</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.4507324094104683</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.4157879112982993</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>0.02708391053749724</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.4904866112319839</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -889,15 +1141,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>3.513969692063465</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.43283119196038</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.3674297793374904</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>4.213631551344183</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>6.697647948805919</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>2.093377802637723</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>2.010229392634001</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>5.009522019087202</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.6361991013746469</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -910,15 +1180,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>5.309469572592508</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.6605489495816566</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.7994847240367774</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.468882646429622</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.3255477251679423</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>3.129195756620812</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>1.779185575662949</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.5136998353915596</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.01065841800798375</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -929,13 +1217,25 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
+      <c r="E20" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.7483825130413105</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-1</v>
+      </c>
       <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
+      <c r="I20" s="5" t="n">
+        <v>-0.3351960179920004</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.9299357860333332</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.8367496643699661</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -946,13 +1246,25 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
+      <c r="E21" s="5" t="n">
+        <v>-0.09599151480793371</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>7.774312145346593</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.92374464687738</v>
+      </c>
       <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
+      <c r="I21" s="5" t="n">
+        <v>13.72806931511386</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.185203463068464</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>2.702819092857677</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -965,15 +1277,33 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.1664741642059098</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02151925845356487</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1440296727150183</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4471733203050237</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1310687801942716</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.04589744875597945</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.1112325831067286</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.07314526232002413</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.05167911258153924</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -982,15 +1312,33 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.5814894875713803</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.4876817817800054</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.4603271610478805</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.0004913803703638618</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.244278351013495</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.2802882703135717</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.233441982636685</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.2696349523448912</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.289821069494096</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -999,15 +1347,33 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.5434700089257887</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.8287548681066073</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3678091880367466</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.062582269696934</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6702113697873975</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.4607826516465274</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.5685227833322928</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.5237472627702404</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.2271143222614802</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
